--- a/data/case1/18/Plm1_1.xlsx
+++ b/data/case1/18/Plm1_1.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.33569560490549577</v>
+        <v>-0.4003700119637017</v>
       </c>
       <c r="B1" s="0">
-        <v>0.33495972702149857</v>
+        <v>0.39940165052053089</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.27555941792705951</v>
+        <v>-0.28485883104582754</v>
       </c>
       <c r="B2" s="0">
-        <v>0.27278866164675541</v>
+        <v>0.28199420486197901</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.16983895707530294</v>
+        <v>-0.15293517688902369</v>
       </c>
       <c r="B3" s="0">
-        <v>0.1690632723779153</v>
+        <v>0.15207473440422703</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.15706327255359653</v>
+        <v>-0.14007473446776331</v>
       </c>
       <c r="B4" s="0">
-        <v>0.15637607065585968</v>
+        <v>0.13930897172374834</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.15037607131572361</v>
+        <v>-0.13330897193964653</v>
       </c>
       <c r="B5" s="0">
-        <v>0.14900972538138646</v>
+        <v>0.13178241233950949</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.043685897837505649</v>
+        <v>-0.030818268010124328</v>
       </c>
       <c r="B6" s="0">
-        <v>0.043656543818403115</v>
+        <v>0.030806275419313689</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.02365654461839739</v>
+        <v>-0.010806275686897848</v>
       </c>
       <c r="B7" s="0">
-        <v>0.02362543362349534</v>
+        <v>0.010798949805430169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0036254344255999271</v>
+        <v>-0.068778123173203198</v>
       </c>
       <c r="B8" s="0">
-        <v>0.003624568720670851</v>
+        <v>0.068381231563635403</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0023754305961602995</v>
+        <v>-0.06238123178980004</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0023758678180927362</v>
+        <v>0.062043236003151314</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.008375867135363535</v>
+        <v>-0.056043236232859783</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.008374267395161894</v>
+        <v>0.055993158237612306</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.012874266725212635</v>
+        <v>-0.051493158462754707</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.012876259438360904</v>
+        <v>0.05141081268392611</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045396188117209579</v>
+        <v>-0.045410812914894905</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045151008869865894</v>
+        <v>0.045157699036439514</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.039151009561835259</v>
+        <v>-0.039157699271124891</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039084453740557912</v>
+        <v>0.039088668639872814</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027084454486656639</v>
+        <v>-0.027088668895252077</v>
       </c>
       <c r="B14" s="0">
-        <v>0.02705257668314065</v>
+        <v>0.027055143718514252</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021052577380394233</v>
+        <v>-0.021055143955249989</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021027520682138423</v>
+        <v>0.021028737121962848</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015027521381529407</v>
+        <v>-0.015028737359524591</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004199366668303</v>
+        <v>0.015004779130276535</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090042000688281831</v>
+        <v>-0.0090047793689151945</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999992717215704</v>
+        <v>0.008999999751322818</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.049400309753472982</v>
+        <v>-0.104542819691126</v>
       </c>
       <c r="B18" s="0">
-        <v>0.049378190216522455</v>
+        <v>0.10442845011085922</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.040378190867656372</v>
+        <v>-0.027097319710394974</v>
       </c>
       <c r="B19" s="0">
-        <v>0.040221646992125937</v>
+        <v>0.027014052580276005</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013381315892474</v>
+        <v>-0.018014052796223368</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004298193499579</v>
+        <v>0.018004332846574655</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042988539753566</v>
+        <v>-0.0090043330628253315</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999993389735522</v>
+        <v>0.0089999997835032985</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093949705240707004</v>
+        <v>-0.12005902819322145</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093636307768132809</v>
+        <v>0.11963775372528218</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084636308443150732</v>
+        <v>-0.11063775394817998</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084127082239485063</v>
+        <v>0.10990848658382291</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042127083205772742</v>
+        <v>-0.042127070625356033</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999028715429</v>
+        <v>0.041999999663034693</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.099323828223624844</v>
+        <v>-0.094964144551212826</v>
       </c>
       <c r="B25" s="0">
-        <v>0.099184137987052168</v>
+        <v>0.094715461039569959</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.093184138669130334</v>
+        <v>-0.088715461262310669</v>
       </c>
       <c r="B26" s="0">
-        <v>0.093009056456146766</v>
+        <v>0.088395782798293965</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.087009057141640422</v>
+        <v>-0.082395783022391367</v>
       </c>
       <c r="B27" s="0">
-        <v>0.086427308848848305</v>
+        <v>0.08130535007990769</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.080427309548629644</v>
+        <v>-0.075305350309069041</v>
       </c>
       <c r="B28" s="0">
-        <v>0.080045882332508533</v>
+        <v>0.074549678963114374</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.068045883093438064</v>
+        <v>-0.062549679215296194</v>
       </c>
       <c r="B29" s="0">
-        <v>0.06787811143718514</v>
+        <v>0.062174558043938788</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.049014313605913351</v>
+        <v>-0.042174558323918365</v>
       </c>
       <c r="B30" s="0">
-        <v>0.048743604658906481</v>
+        <v>0.042020904046665919</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.033743605458273151</v>
+        <v>-0.027020904312836436</v>
       </c>
       <c r="B31" s="0">
-        <v>0.033672380454852657</v>
+        <v>0.027000972571787685</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.012672381306772174</v>
+        <v>-0.0060009728579037969</v>
       </c>
       <c r="B32" s="0">
-        <v>0.012591305406648878</v>
+        <v>0.0059999997625501678</v>
       </c>
     </row>
   </sheetData>
